--- a/Time.xlsx
+++ b/Time.xlsx
@@ -386,7 +386,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1097,38 +1097,38 @@
         <v>800</v>
       </c>
       <c r="B21">
-        <v>54.875</v>
+        <v>74.091999999999999</v>
       </c>
       <c r="C21">
-        <v>69.688000000000002</v>
+        <v>46.767000000000003</v>
       </c>
       <c r="D21">
-        <v>70.138999999999996</v>
+        <v>45.665999999999997</v>
       </c>
       <c r="E21">
-        <v>65.644000000000005</v>
+        <v>65.090999999999994</v>
       </c>
       <c r="F21">
-        <v>55.280999999999999</v>
+        <v>53.558999999999997</v>
       </c>
       <c r="G21">
-        <v>45.058</v>
+        <v>46.796999999999997</v>
       </c>
       <c r="H21">
-        <v>42.447000000000003</v>
+        <v>91.564999999999998</v>
       </c>
       <c r="I21">
-        <v>61.341000000000001</v>
+        <v>44.201999999999998</v>
       </c>
       <c r="J21">
-        <v>53.636000000000003</v>
+        <v>48.453000000000003</v>
       </c>
       <c r="K21">
-        <v>39.423000000000002</v>
+        <v>154.84100000000001</v>
       </c>
       <c r="L21">
         <f t="shared" si="0"/>
-        <v>55.753200000000007</v>
+        <v>67.103300000000004</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1136,38 +1136,38 @@
         <v>900</v>
       </c>
       <c r="B22">
-        <v>68.87</v>
+        <v>70.382999999999996</v>
       </c>
       <c r="C22">
-        <v>52.292999999999999</v>
+        <v>48.040999999999997</v>
       </c>
       <c r="D22">
-        <v>61</v>
+        <v>51.143000000000001</v>
       </c>
       <c r="E22">
-        <v>60.768000000000001</v>
+        <v>70.665999999999997</v>
       </c>
       <c r="F22">
-        <v>49.593000000000004</v>
+        <v>95.924999999999997</v>
       </c>
       <c r="G22">
-        <v>76.558000000000007</v>
+        <v>100.06</v>
       </c>
       <c r="H22">
-        <v>40.9</v>
+        <v>45.026000000000003</v>
       </c>
       <c r="I22">
-        <v>54.439</v>
+        <v>59.48</v>
       </c>
       <c r="J22">
-        <v>62.468000000000004</v>
+        <v>83.706000000000003</v>
       </c>
       <c r="K22">
-        <v>82.781999999999996</v>
+        <v>44.481000000000002</v>
       </c>
       <c r="L22">
         <f t="shared" si="0"/>
-        <v>60.967100000000002</v>
+        <v>66.891100000000009</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1175,38 +1175,38 @@
         <v>1000</v>
       </c>
       <c r="B23">
-        <v>59.423000000000002</v>
+        <v>38.889000000000003</v>
       </c>
       <c r="C23">
-        <v>58.877000000000002</v>
+        <v>50.774000000000001</v>
       </c>
       <c r="D23">
-        <v>56.798999999999999</v>
+        <v>40.688000000000002</v>
       </c>
       <c r="E23">
-        <v>49.883000000000003</v>
+        <v>52.823999999999998</v>
       </c>
       <c r="F23">
-        <v>74.72</v>
+        <v>61.970999999999997</v>
       </c>
       <c r="G23">
-        <v>65.096999999999994</v>
+        <v>44.335000000000001</v>
       </c>
       <c r="H23">
-        <v>53.002000000000002</v>
+        <v>59.886000000000003</v>
       </c>
       <c r="I23">
-        <v>82.738</v>
+        <v>43.037999999999997</v>
       </c>
       <c r="J23">
-        <v>59.040999999999997</v>
+        <v>49.268999999999998</v>
       </c>
       <c r="K23">
-        <v>54.244999999999997</v>
+        <v>45.664000000000001</v>
       </c>
       <c r="L23">
         <f t="shared" si="0"/>
-        <v>61.382499999999993</v>
+        <v>48.733800000000002</v>
       </c>
     </row>
   </sheetData>
